--- a/TrelloProject/src/test/resources/trello.xlsx
+++ b/TrelloProject/src/test/resources/trello.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manik\eclipse-workspace\TrelloProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manik\git\automationproject\TrelloProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8C4A1F-4101-4EDF-8503-784EC5B53B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC3069-2FFC-4473-8363-999E4878C25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6151022-DF4F-4D3F-910B-4783B628BFEF}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">exceptedLoginPageTitle </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Log in to Trello</t>
   </si>
@@ -121,6 +118,45 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>addcardbutton1</t>
+  </si>
+  <si>
+    <t>Manual Testing</t>
+  </si>
+  <si>
+    <t>addcardbutton2</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>addcardbutton3</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>addcardbutton4</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>addcardbutton5</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>exceptedLoginPageTitle</t>
+  </si>
+  <si>
+    <t>boardTitle1</t>
+  </si>
+  <si>
+    <t>Pspiders</t>
   </si>
 </sst>
 </file>
@@ -506,9 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D5CA14-169A-44A8-B43B-E466A24D5193}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -518,130 +556,178 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
